--- a/biology/Médecine/Échelle_de_Yale-Brown/Échelle_de_Yale-Brown.xlsx
+++ b/biology/Médecine/Échelle_de_Yale-Brown/Échelle_de_Yale-Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Yale-Brown</t>
+          <t>Échelle_de_Yale-Brown</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’échelle de Yale-Brown (ou Y-BOCS) est un indicateur de mesure du trouble obsessionnel compulsif[1]. Elle a été créée dans les années 1980 par le psychiatre américain Wayne Goodman (en) et ses collègues de l'université Yale[2], qui en ont produit une seconde version (Y-BOCS-II) dans les années 2000[3].
-Il en existe aussi une version pour enfants (CY-BOCS)[4] : il s'agit d'un questionnaire comportant 70 questions.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’échelle de Yale-Brown (ou Y-BOCS) est un indicateur de mesure du trouble obsessionnel compulsif. Elle a été créée dans les années 1980 par le psychiatre américain Wayne Goodman (en) et ses collègues de l'université Yale, qui en ont produit une seconde version (Y-BOCS-II) dans les années 2000.
+Il en existe aussi une version pour enfants (CY-BOCS) : il s'agit d'un questionnaire comportant 70 questions.
 </t>
         </is>
       </c>
